--- a/query/query2.xlsx
+++ b/query/query2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,172 +468,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>WARD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7934</t>
+          <t>7521</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACCOUNTING</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>634400</t>
+          <t>623750</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>499</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>TURNER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7844</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACCOUNTING</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>739500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>493</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KING</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7839</t>
+          <t>7788</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACCOUNTING</t>
+          <t>RESEARCH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2450000</t>
+          <t>1184480</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>410</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLARK</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7782</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACCOUNTING</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1215200</t>
+          <t>452200</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>476</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7902</t>
+          <t>7934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RESEARCH</t>
+          <t>ACCOUNTING</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>634400</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>488</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADAMS</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7876</t>
+          <t>7369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,108 +648,108 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>465300</t>
+          <t>400800</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>MARTIN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7788</t>
+          <t>7654</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RESEARCH</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>492</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>CLARK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7788</t>
+          <t>7782</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RESEARCH</t>
+          <t>ACCOUNTING</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12480</t>
+          <t>1215200</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>496</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7788</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RESEARCH</t>
+          <t>ACCOUNTING</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1161000</t>
+          <t>12350</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7369</t>
+          <t>7902</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,24 +808,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>400800</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>490</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>ALLEN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7499</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -840,24 +840,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>452200</t>
+          <t>798400</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>499</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TURNER</t>
+          <t>BLAKE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7844</t>
+          <t>7698</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,140 +872,76 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>739500</t>
+          <t>1416450</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>497</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLAKE</t>
+          <t>KING</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7698</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>ACCOUNTING</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1416450</t>
+          <t>2450000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>490</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARTIN</t>
+          <t>ADAMS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7654</t>
+          <t>7876</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>RESEARCH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>465300</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>492</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7521</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SALES</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>623750</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ALLEN</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7499</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SALES</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>798400</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>499</t>
+          <t>423</t>
         </is>
       </c>
     </row>
